--- a/revref_forum.xlsx
+++ b/revref_forum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3523658-E0A2-4CC6-9BBE-1BD3838AE438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189FA0A6-4663-424F-AD92-FA6528F6A214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="10860" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>header1</t>
   </si>
@@ -1096,10 +1096,71 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;b&gt;作成中です&lt;/b&gt;</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイチュウ</t>
-    </rPh>
+    <t>ディスカッションリストの上の別のスペースに紹介テキストが表示されます&lt;br&gt;
+学生には、新しいディスカッション（スレッド）を開始するためのボタンが表示されます</t>
+    <rPh sb="39" eb="41">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教員が1件のトピックを投稿し、学生は返信しかできず新しい議論の話題を始めることはできません&lt;br&gt;
+ディスカッションに集中したい場合に適しています</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生が作れるトピックは１人１件と決まっています&lt;br&gt;
+返信はどのトピックにもすることができ、件数にも制限はありません</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回答したい特定の質問がある場合に適しています&lt;br&gt;
+教員は質問を投稿し、学生は回答で応答します&lt;br&gt;
+デフォルトの設定で、学生は他の学生の投稿を表示する前に一度投稿する必要があります</t>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般的な使用の標準フォーラムと同様に機能しますが、各ディスカッションの最初の投稿が（ブログのように）表示されるため、&lt;br&gt;
+ユーザーはそれを読んでから、投稿の右下にある[このトピックについて話し合う]ボタンをクリックして返信します</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1206,7 +1267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1335,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2032,7 +2096,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2083,41 +2147,41 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
+      <c r="B12" s="24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2129,22 +2193,25 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="1"/>
+      <c r="B15" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="56.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>64</v>
+      <c r="B18" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2153,14 +2220,32 @@
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="56.25">
       <c r="A21" s="1"/>
+      <c r="B21" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="37.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3092,12 +3177,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3350,27 +3444,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3395,12 +3483,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_forum.xlsx
+++ b/revref_forum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189FA0A6-4663-424F-AD92-FA6528F6A214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8F2FB8-2FCB-4417-81BF-BCA11344E004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
   <si>
     <t>header1</t>
   </si>
@@ -1104,23 +1104,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>教員が1件のトピックを投稿し、学生は返信しかできず新しい議論の話題を始めることはできません&lt;br&gt;
-ディスカッションに集中したい場合に適しています</t>
-    <rPh sb="0" eb="2">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>学生が作れるトピックは１人１件と決まっています&lt;br&gt;
 返信はどのトピックにもすることができ、件数にも制限はありません</t>
     <rPh sb="0" eb="2">
@@ -1159,8 +1142,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一般的な使用の標準フォーラムと同様に機能しますが、各ディスカッションの最初の投稿が（ブログのように）表示されるため、&lt;br&gt;
-ユーザーはそれを読んでから、投稿の右下にある[このトピックについて話し合う]ボタンをクリックして返信します</t>
+    <t>教員が1件のトピックを投稿し、学生は返信しかできず新しいトピックを始めることはできません&lt;br&gt;
+ディスカッションに集中したい場合に適しています</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般的な使用の標準フォーラムと同様に機能しますが、フォーラムを開くと各トピックの最初の投稿が（ブログのように）表示されます</t>
+    <rPh sb="31" eb="32">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2109,7 +2118,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2181,7 +2190,7 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2196,7 +2205,7 @@
     <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2211,7 +2220,7 @@
     <row r="18" spans="1:2" ht="56.25">
       <c r="A18" s="1"/>
       <c r="B18" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2223,10 +2232,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="56.25">
+    <row r="21" spans="1:2" ht="37.5">
       <c r="A21" s="1"/>
       <c r="B21" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3177,21 +3186,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3444,21 +3444,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3483,9 +3489,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>